--- a/08_august/Augustdsr.xlsx
+++ b/08_august/Augustdsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Day</t>
   </si>
@@ -76,13 +76,43 @@
     <t>2h 10m</t>
   </si>
   <si>
-    <t>wbx-5161</t>
+    <t>wbx-5159</t>
   </si>
   <si>
     <t>reviewed prs</t>
   </si>
   <si>
     <t>20m</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>try to solve git comment</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>make system constants and update code and raised the pending prs and solve searching pagination issue and try to solve admin payments modules tabs and paginations</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try to solve the pagination and tab issue in merchant component modules </t>
+  </si>
+  <si>
+    <t>work on the merchant modules and admin payment modules on pagination and tab issue</t>
+  </si>
+  <si>
+    <t>1h 36m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meeting with sonia and wrap up all the goods </t>
+  </si>
+  <si>
+    <t>54m</t>
   </si>
 </sst>
 </file>
@@ -98,7 +128,7 @@
     <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="182" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +156,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,12 +346,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -437,19 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,69 +639,72 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,73 +717,70 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,13 +1141,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O17"/>
+  <dimension ref="A3:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="11.8571428571429" customWidth="1"/>
@@ -1362,8 +1367,8 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="9" t="s">
         <v>20</v>
       </c>
@@ -1388,22 +1393,249 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45140</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.40625</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="27">
     <mergeCell ref="F10:N10"/>
     <mergeCell ref="F11:N11"/>
     <mergeCell ref="F12:N12"/>
     <mergeCell ref="F15:N15"/>
     <mergeCell ref="F16:N16"/>
     <mergeCell ref="F17:N17"/>
+    <mergeCell ref="F20:N20"/>
+    <mergeCell ref="F21:N21"/>
+    <mergeCell ref="F22:N22"/>
+    <mergeCell ref="F25:N25"/>
+    <mergeCell ref="F26:N26"/>
+    <mergeCell ref="F27:N27"/>
     <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A21:A27"/>
     <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B21:B27"/>
     <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O23:O24"/>
     <mergeCell ref="F13:N14"/>
     <mergeCell ref="D3:K4"/>
+    <mergeCell ref="F23:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
